--- a/ProjectUR/Content/Data/Excel/GameDataTest.xlsx
+++ b/ProjectUR/Content/Data/Excel/GameDataTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peh96\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnrealProject\ProjectUR\ProjectUR\Content\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F7037E-B3B6-4A6B-B6E0-C2231AB7C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D40EC-AB9A-486C-8613-5CFB426A810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F66A85E0-D697-4394-855F-76FCD78419AA}"/>
+    <workbookView xWindow="1560" yWindow="4875" windowWidth="28800" windowHeight="15345" xr2:uid="{F66A85E0-D697-4394-855F-76FCD78419AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>총을 든 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA5F9B4-1B09-4EBA-9D42-39B52DF75D7A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,7 +491,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -537,66 +541,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB14BB8-0F8D-470C-96F7-5B39771C864F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
